--- a/data/trans_orig/IP2907_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2907_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A43F211B-FAC9-4490-A5AA-B377ABA67C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AE8317C-04A4-49E7-B872-8E4370C553B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CBE76BB6-4F5F-4C6F-97F5-FFAEC7535F94}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83531A4C-B6FF-48A5-BFF7-440DFDEE3D1F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si su lactancia durante los primeros meses de vida fue artificial en 2023 (Tasa respuesta: 95,47%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>24,99%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
   </si>
   <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
   </si>
   <si>
     <t>22,55%</t>
   </si>
   <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>75,01%</t>
   </si>
   <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
   <si>
     <t>79,71%</t>
   </si>
   <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>77,45%</t>
   </si>
   <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>19,24%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
   </si>
   <si>
     <t>18,21%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
   </si>
   <si>
     <t>18,75%</t>
   </si>
   <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
   </si>
   <si>
     <t>80,76%</t>
   </si>
   <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
   </si>
   <si>
     <t>81,79%</t>
   </si>
   <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>81,25%</t>
   </si>
   <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -194,55 +194,55 @@
     <t>19,49%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
   </si>
   <si>
     <t>18,98%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
   </si>
   <si>
     <t>19,26%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
   </si>
   <si>
     <t>80,51%</t>
   </si>
   <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
   </si>
   <si>
     <t>81,02%</t>
   </si>
   <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -251,103 +251,109 @@
     <t>18,61%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
   </si>
   <si>
     <t>19,31%</t>
   </si>
   <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
   </si>
   <si>
     <t>18,93%</t>
   </si>
   <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
   </si>
   <si>
     <t>81,39%</t>
   </si>
   <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>80,69%</t>
   </si>
   <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>81,07%</t>
   </si>
   <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>16,69%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
   </si>
   <si>
     <t>19,01%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
   </si>
   <si>
     <t>19,23%</t>
   </si>
   <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>83,31%</t>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>80,99%</t>
   </si>
   <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
   </si>
   <si>
     <t>80,77%</t>
   </si>
   <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -762,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD272854-EE28-4C7D-9835-E163DF7CDDEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB33E5A9-6C13-4321-B91C-F4E32B84C132}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1512,7 +1518,7 @@
         <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>178</v>
@@ -1521,13 +1527,13 @@
         <v>118222</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>357</v>
@@ -1536,13 +1542,13 @@
         <v>254543</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,13 +1563,13 @@
         <v>565711</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>726</v>
@@ -1572,13 +1578,13 @@
         <v>503628</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1476</v>
@@ -1587,13 +1593,13 @@
         <v>1069339</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,7 +1655,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2907_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2907_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AE8317C-04A4-49E7-B872-8E4370C553B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69F8DE40-4475-4114-A970-5DE2D409D1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83531A4C-B6FF-48A5-BFF7-440DFDEE3D1F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{403C55FE-3DE4-424E-977E-F78B125328DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Menores según si su lactancia durante los primeros meses de vida fue artificial en 2023 (Tasa respuesta: 95,47%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,226 +134,220 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>19,49%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
   </si>
   <si>
     <t>19,31%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
   </si>
   <si>
     <t>80,69%</t>
   </si>
   <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB33E5A9-6C13-4321-B91C-F4E32B84C132}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49829C37-1A58-437D-8AA1-ABAAB065AC80}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -886,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>10895</v>
+        <v>9605</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -901,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>9499</v>
+        <v>11811</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -919,7 +913,7 @@
         <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>20394</v>
+        <v>21417</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -937,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D5" s="7">
-        <v>32703</v>
+        <v>37405</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -952,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I5" s="7">
-        <v>37327</v>
+        <v>33911</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -970,7 +964,7 @@
         <v>130</v>
       </c>
       <c r="N5" s="7">
-        <v>70030</v>
+        <v>71315</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -988,25 +982,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>85</v>
+      </c>
+      <c r="D6" s="7">
+        <v>47010</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>82</v>
       </c>
-      <c r="D6" s="7">
-        <v>43598</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>85</v>
-      </c>
       <c r="I6" s="7">
-        <v>46826</v>
+        <v>45722</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1021,7 +1015,7 @@
         <v>167</v>
       </c>
       <c r="N6" s="7">
-        <v>90424</v>
+        <v>92732</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1041,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7">
-        <v>33443</v>
+        <v>28983</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1056,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I7" s="7">
-        <v>28687</v>
+        <v>34883</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1074,7 +1068,7 @@
         <v>103</v>
       </c>
       <c r="N7" s="7">
-        <v>62130</v>
+        <v>63867</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1092,10 +1086,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D8" s="7">
-        <v>140390</v>
+        <v>129069</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1107,10 +1101,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="I8" s="7">
-        <v>128816</v>
+        <v>146165</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1125,7 +1119,7 @@
         <v>426</v>
       </c>
       <c r="N8" s="7">
-        <v>269206</v>
+        <v>275233</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1143,25 +1137,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>256</v>
+      </c>
+      <c r="D9" s="7">
+        <v>158052</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>273</v>
       </c>
-      <c r="D9" s="7">
-        <v>173833</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>256</v>
-      </c>
       <c r="I9" s="7">
-        <v>157503</v>
+        <v>181048</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1176,7 +1170,7 @@
         <v>529</v>
       </c>
       <c r="N9" s="7">
-        <v>331336</v>
+        <v>339100</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1196,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>39471</v>
+        <v>32801</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1211,10 +1205,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7">
-        <v>33126</v>
+        <v>41293</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1229,7 +1223,7 @@
         <v>91</v>
       </c>
       <c r="N10" s="7">
-        <v>72596</v>
+        <v>74094</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1247,10 +1241,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D11" s="7">
-        <v>163007</v>
+        <v>138727</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1262,10 +1256,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="I11" s="7">
-        <v>141414</v>
+        <v>171197</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1280,7 +1274,7 @@
         <v>383</v>
       </c>
       <c r="N11" s="7">
-        <v>304422</v>
+        <v>309924</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1298,25 +1292,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>231</v>
+      </c>
+      <c r="D12" s="7">
+        <v>171528</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>231</v>
-      </c>
       <c r="I12" s="7">
-        <v>174540</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1331,7 +1325,7 @@
         <v>474</v>
       </c>
       <c r="N12" s="7">
-        <v>377018</v>
+        <v>384018</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1351,10 +1345,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D13" s="7">
-        <v>52512</v>
+        <v>46035</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1366,34 +1360,34 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I13" s="7">
-        <v>46910</v>
+        <v>57920</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
       </c>
       <c r="N13" s="7">
-        <v>99422</v>
+        <v>103955</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,49 +1396,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>265</v>
+      </c>
+      <c r="D14" s="7">
+        <v>194384</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="7">
         <v>272</v>
       </c>
-      <c r="D14" s="7">
-        <v>229611</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>240100</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>265</v>
-      </c>
-      <c r="I14" s="7">
-        <v>196071</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>537</v>
       </c>
       <c r="N14" s="7">
-        <v>425682</v>
+        <v>434484</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,25 +1447,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>332</v>
+      </c>
+      <c r="D15" s="7">
+        <v>240419</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>331</v>
       </c>
-      <c r="D15" s="7">
-        <v>282123</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>332</v>
-      </c>
       <c r="I15" s="7">
-        <v>242981</v>
+        <v>298020</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1486,7 +1480,7 @@
         <v>663</v>
       </c>
       <c r="N15" s="7">
-        <v>525104</v>
+        <v>538439</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1506,49 +1500,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>178</v>
+      </c>
+      <c r="D16" s="7">
+        <v>117425</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
         <v>179</v>
       </c>
-      <c r="D16" s="7">
-        <v>136321</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>145907</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="7">
-        <v>178</v>
-      </c>
-      <c r="I16" s="7">
-        <v>118222</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>357</v>
       </c>
       <c r="N16" s="7">
-        <v>254543</v>
+        <v>263332</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,49 +1551,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>726</v>
+      </c>
+      <c r="D17" s="7">
+        <v>499584</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
         <v>750</v>
       </c>
-      <c r="D17" s="7">
-        <v>565711</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>591373</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="7">
-        <v>726</v>
-      </c>
-      <c r="I17" s="7">
-        <v>503628</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1476</v>
       </c>
       <c r="N17" s="7">
-        <v>1069339</v>
+        <v>1090957</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,25 +1602,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>904</v>
+      </c>
+      <c r="D18" s="7">
+        <v>617009</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>929</v>
       </c>
-      <c r="D18" s="7">
-        <v>702032</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>904</v>
-      </c>
       <c r="I18" s="7">
-        <v>621850</v>
+        <v>737280</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1641,7 +1635,7 @@
         <v>1833</v>
       </c>
       <c r="N18" s="7">
-        <v>1323882</v>
+        <v>1354289</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1655,7 +1649,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
